--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="4110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>hashtags</t>
   </si>
@@ -30,227 +30,403 @@
     <t>views</t>
   </si>
   <si>
-    <t xml:space="preserve"># holamayo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># diadelasmadres
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># micalendario
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># capgaleria
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># mejordime
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># asokachallenge
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># пасха
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># johnnycash
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># tiktokshopmothersday
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># canelo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># sancho
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># cincodemayo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># fnf
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># caneloalvarez
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># promoguncang55
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># stickemup
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># oscardelahoya
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># milliondollarbaby
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># 10demayo
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90M
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># ucla
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72M
+    <t xml:space="preserve"># icecream
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># espresso
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># strawberry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># drinks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># egg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># beer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># francetiktok🇫🇷
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># matcha
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># eggs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># candysalad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># grill
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># foodchallenge
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># rockpaperscissors
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># patisserie
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># chipotle
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># catering
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># pastry
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># shots
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># шашлык
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># margarita
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># goodfood
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># пикник
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># bigbackactivities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># bubbletea
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># dessert
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># drpepper
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># drinktok
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># crab
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># gelato
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># teatime
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># tiramisu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># matchalatte
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># rooftop
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># housewife
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># lamb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># burrito
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># fried
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># pineapple
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># tomato
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># cravings
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># taste
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># farmersmarket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># grilling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># sweettreats
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># yogurt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># filipinofood
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># cereal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># crawfish
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># coffeeaddict
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># crumblcookies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># gummy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># pistachio
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># tiktokmademedoit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># свято
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># slimevideo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># cerveza
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># charcuterie
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># tresleches
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># crumbl
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># homecooking
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># narasmith
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># makanan
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># skittles
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># oreo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># chilis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># tequila
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># scoop
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># seblak
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># sweettreat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># chickennuggets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># timhortons
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># kingdom
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># hydrate
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># hamburguesa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># smoothie
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># juice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># mixology
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># neworleans
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># acaibowl
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># buffet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># summerdrinks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># comidas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># coldbrew
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># jamaicanfood
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># heinz
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># swedishcandy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># monngonmoingay
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># celsius
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># blackstone
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># vegetables
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># cajun
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># daydrinking
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># kahve
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># espressomartini
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># seblakviral
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># dulce
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># crawfishboil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># trufru
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># jelly
 </t>
   </si>
 </sst>
@@ -614,13 +790,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,285 +815,1408 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>931000</v>
+      </c>
+      <c r="D2">
+        <v>12000000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>872000</v>
+      </c>
+      <c r="D3">
+        <v>40000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>858000</v>
+      </c>
+      <c r="D4">
+        <v>80000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>840000</v>
+      </c>
+      <c r="D5">
+        <v>17000000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>829000</v>
+      </c>
+      <c r="D6">
+        <v>46000000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>813000</v>
+      </c>
+      <c r="D7">
+        <v>23000000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>800000</v>
+      </c>
+      <c r="D8">
+        <v>12000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>702000</v>
+      </c>
+      <c r="D9">
+        <v>33000000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>480000</v>
+      </c>
+      <c r="D10">
+        <v>7000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>26000</v>
+      </c>
+      <c r="D11">
+        <v>498000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>24000</v>
+      </c>
+      <c r="D12">
+        <v>666000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>23000</v>
+      </c>
+      <c r="D13">
+        <v>217000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>19000</v>
+      </c>
+      <c r="D14">
+        <v>201000000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>18000</v>
+      </c>
+      <c r="D15">
+        <v>285000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>16000</v>
+      </c>
+      <c r="D16">
+        <v>154000000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>167000000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
+      <c r="C18">
+        <v>15000</v>
+      </c>
+      <c r="D18">
+        <v>91000000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>14000</v>
+      </c>
+      <c r="D19">
+        <v>127000000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>11000</v>
+      </c>
+      <c r="D20">
+        <v>309000000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>135000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>62000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>9000</v>
+      </c>
+      <c r="D23">
+        <v>215000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>9000</v>
+      </c>
+      <c r="D24">
+        <v>113000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>9000</v>
+      </c>
+      <c r="D25">
+        <v>130000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>9000</v>
+      </c>
+      <c r="D26">
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>8000</v>
+      </c>
+      <c r="D27">
+        <v>355000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>8000</v>
+      </c>
+      <c r="D28">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>8000</v>
+      </c>
+      <c r="D29">
+        <v>68000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>8000</v>
+      </c>
+      <c r="D30">
+        <v>239000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>7000</v>
+      </c>
+      <c r="D31">
+        <v>185000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>193000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>7000</v>
+      </c>
+      <c r="D33">
+        <v>113000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>7000</v>
+      </c>
+      <c r="D34">
+        <v>116000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>7000</v>
+      </c>
+      <c r="D35">
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36">
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>6000</v>
+      </c>
+      <c r="D37">
+        <v>105000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>6000</v>
+      </c>
+      <c r="D38">
+        <v>74000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>6000</v>
+      </c>
+      <c r="D39">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40">
+        <v>6000</v>
+      </c>
+      <c r="D40">
+        <v>98000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <v>6000</v>
+      </c>
+      <c r="D41">
+        <v>76000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42">
+        <v>6000</v>
+      </c>
+      <c r="D42">
+        <v>117000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>5000</v>
+      </c>
+      <c r="D43">
+        <v>184000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>5000</v>
+      </c>
+      <c r="D44">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>5000</v>
+      </c>
+      <c r="D45">
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>5000</v>
+      </c>
+      <c r="D46">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>5000</v>
+      </c>
+      <c r="D47">
+        <v>116000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48">
+        <v>5000</v>
+      </c>
+      <c r="D48">
+        <v>57000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49">
+        <v>5000</v>
+      </c>
+      <c r="D49">
+        <v>81000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>5000</v>
+      </c>
+      <c r="D50">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>5000</v>
+      </c>
+      <c r="D51">
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+      <c r="D52">
+        <v>59000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>5000</v>
+      </c>
+      <c r="D53">
+        <v>58000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>4000</v>
+      </c>
+      <c r="D54">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>4000</v>
+      </c>
+      <c r="D55">
+        <v>77000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>4000</v>
+      </c>
+      <c r="D56">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>4000</v>
+      </c>
+      <c r="D57">
+        <v>62000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>4000</v>
+      </c>
+      <c r="D58">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>4000</v>
+      </c>
+      <c r="D59">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>4000</v>
+      </c>
+      <c r="D60">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>4000</v>
+      </c>
+      <c r="D61">
+        <v>61000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62">
+        <v>4000</v>
+      </c>
+      <c r="D62">
+        <v>71000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>3000</v>
+      </c>
+      <c r="D63">
+        <v>68000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>3000</v>
+      </c>
+      <c r="D64">
+        <v>91000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>3000</v>
+      </c>
+      <c r="D65">
+        <v>61000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>3000</v>
+      </c>
+      <c r="D66">
+        <v>58000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <v>3000</v>
+      </c>
+      <c r="D67">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>3000</v>
+      </c>
+      <c r="D68">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>3000</v>
+      </c>
+      <c r="D69">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>3000</v>
+      </c>
+      <c r="D70">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71">
+        <v>3000</v>
+      </c>
+      <c r="D71">
+        <v>51000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72">
+        <v>3000</v>
+      </c>
+      <c r="D72">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73">
+        <v>3000</v>
+      </c>
+      <c r="D73">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74">
+        <v>3000</v>
+      </c>
+      <c r="D74">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>3000</v>
+      </c>
+      <c r="D75">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>3000</v>
+      </c>
+      <c r="D76">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77">
+        <v>3000</v>
+      </c>
+      <c r="D77">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>3000</v>
+      </c>
+      <c r="D78">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79">
+        <v>127000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>2000</v>
+      </c>
+      <c r="D80">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81">
+        <v>2000</v>
+      </c>
+      <c r="D81">
+        <v>74000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>2000</v>
+      </c>
+      <c r="D82">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
+      <c r="D83">
+        <v>63000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>2000</v>
+      </c>
+      <c r="D84">
+        <v>69000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <v>2000</v>
+      </c>
+      <c r="D86">
+        <v>69000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C87">
+        <v>2000</v>
+      </c>
+      <c r="D87">
+        <v>94000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>2000</v>
+      </c>
+      <c r="D88">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>2000</v>
+      </c>
+      <c r="D89">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>58</v>
       </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>2000</v>
+      </c>
+      <c r="D90">
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>72</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91">
+        <v>2000</v>
+      </c>
+      <c r="D91">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>76</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92">
+        <v>2000</v>
+      </c>
+      <c r="D92">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93">
+        <v>2000</v>
+      </c>
+      <c r="D93">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94">
+        <v>1000</v>
+      </c>
+      <c r="D94">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>68</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <v>1000</v>
+      </c>
+      <c r="D95">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>69</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96">
+        <v>1000</v>
+      </c>
+      <c r="D96">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>1000</v>
+      </c>
+      <c r="D97">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98">
+        <v>1000</v>
+      </c>
+      <c r="D98">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>80</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99">
+        <v>1000</v>
+      </c>
+      <c r="D99">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100">
+        <v>1000</v>
+      </c>
+      <c r="D100">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101">
+        <v>1000</v>
+      </c>
+      <c r="D101">
+        <v>32000000</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D101">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>